--- a/Stats/NUMBEO_Healthcare_Index.xlsx
+++ b/Stats/NUMBEO_Healthcare_Index.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="330">
   <si>
     <t>Rank</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>Health Care Expenditure Index</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
   <si>
     <t>Kaohsiung, Taiwan</t>
@@ -1358,7 +1361,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D327"/>
+  <dimension ref="A1:D343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1383,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>89.09999999999999</v>
@@ -1397,7 +1400,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>87</v>
@@ -1411,7 +1414,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>85</v>
@@ -1425,7 +1428,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>85</v>
@@ -1439,7 +1442,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>83</v>
@@ -1453,7 +1456,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8">
         <v>81.59999999999999</v>
@@ -1467,7 +1470,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>81.3</v>
@@ -1481,7 +1484,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10">
         <v>81</v>
@@ -1495,7 +1498,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>80.90000000000001</v>
@@ -1509,7 +1512,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>80.59999999999999</v>
@@ -1523,7 +1526,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>80.59999999999999</v>
@@ -1537,7 +1540,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14">
         <v>80.40000000000001</v>
@@ -1551,7 +1554,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <v>80</v>
@@ -1565,7 +1568,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16">
         <v>79.90000000000001</v>
@@ -1579,7 +1582,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>79.90000000000001</v>
@@ -1593,7 +1596,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18">
         <v>79.8</v>
@@ -1607,7 +1610,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C19">
         <v>79.8</v>
@@ -1621,7 +1624,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C20">
         <v>79.59999999999999</v>
@@ -1635,7 +1638,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>79.40000000000001</v>
@@ -1649,7 +1652,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C22">
         <v>79.2</v>
@@ -1663,7 +1666,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>79.09999999999999</v>
@@ -1677,7 +1680,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24">
         <v>79.09999999999999</v>
@@ -1691,7 +1694,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25">
         <v>78.7</v>
@@ -1705,7 +1708,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>78.7</v>
@@ -1719,7 +1722,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27">
         <v>78.59999999999999</v>
@@ -1733,7 +1736,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C28">
         <v>78.59999999999999</v>
@@ -1747,7 +1750,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C29">
         <v>78.5</v>
@@ -1761,7 +1764,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C30">
         <v>78</v>
@@ -1775,7 +1778,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C31">
         <v>78</v>
@@ -1789,7 +1792,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C32">
         <v>77.8</v>
@@ -1803,7 +1806,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C33">
         <v>77.8</v>
@@ -1817,7 +1820,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C34">
         <v>77.7</v>
@@ -1831,7 +1834,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C35">
         <v>77.2</v>
@@ -1845,7 +1848,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36">
         <v>77.09999999999999</v>
@@ -1859,7 +1862,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C37">
         <v>77.09999999999999</v>
@@ -1873,7 +1876,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C38">
         <v>77</v>
@@ -1887,7 +1890,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C39">
         <v>76.90000000000001</v>
@@ -1901,7 +1904,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C40">
         <v>76.90000000000001</v>
@@ -1915,7 +1918,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C41">
         <v>76.90000000000001</v>
@@ -1929,7 +1932,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C42">
         <v>76.8</v>
@@ -1943,7 +1946,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C43">
         <v>76.7</v>
@@ -1957,7 +1960,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C44">
         <v>76.7</v>
@@ -1971,7 +1974,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C45">
         <v>76.40000000000001</v>
@@ -1985,7 +1988,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C46">
         <v>76.3</v>
@@ -1999,7 +2002,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C47">
         <v>76.09999999999999</v>
@@ -2013,7 +2016,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C48">
         <v>75.90000000000001</v>
@@ -2027,7 +2030,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C49">
         <v>75.90000000000001</v>
@@ -2041,7 +2044,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C50">
         <v>75.8</v>
@@ -2055,7 +2058,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C51">
         <v>75.8</v>
@@ -2069,7 +2072,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C52">
         <v>75.59999999999999</v>
@@ -2083,7 +2086,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C53">
         <v>75.40000000000001</v>
@@ -2097,7 +2100,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C54">
         <v>75.09999999999999</v>
@@ -2111,7 +2114,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C55">
         <v>74.90000000000001</v>
@@ -2125,7 +2128,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C56">
         <v>74.8</v>
@@ -2139,7 +2142,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C57">
         <v>74.59999999999999</v>
@@ -2153,7 +2156,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C58">
         <v>74.59999999999999</v>
@@ -2167,7 +2170,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C59">
         <v>74.5</v>
@@ -2181,7 +2184,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C60">
         <v>74.5</v>
@@ -2195,7 +2198,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C61">
         <v>74.5</v>
@@ -2209,7 +2212,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C62">
         <v>74.5</v>
@@ -2223,7 +2226,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C63">
         <v>74.40000000000001</v>
@@ -2237,7 +2240,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C64">
         <v>74.40000000000001</v>
@@ -2251,7 +2254,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C65">
         <v>74</v>
@@ -2265,7 +2268,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C66">
         <v>74</v>
@@ -2279,7 +2282,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C67">
         <v>73.90000000000001</v>
@@ -2293,7 +2296,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C68">
         <v>73.59999999999999</v>
@@ -2307,7 +2310,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C69">
         <v>73.5</v>
@@ -2321,7 +2324,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C70">
         <v>73.5</v>
@@ -2335,7 +2338,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C71">
         <v>73.5</v>
@@ -2349,7 +2352,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C72">
         <v>73.5</v>
@@ -2363,7 +2366,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C73">
         <v>73.40000000000001</v>
@@ -2377,7 +2380,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C74">
         <v>73.2</v>
@@ -2391,7 +2394,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C75">
         <v>73.2</v>
@@ -2405,7 +2408,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C76">
         <v>73.09999999999999</v>
@@ -2419,7 +2422,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C77">
         <v>72.90000000000001</v>
@@ -2433,7 +2436,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C78">
         <v>72.8</v>
@@ -2447,7 +2450,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C79">
         <v>72.8</v>
@@ -2461,7 +2464,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C80">
         <v>72.7</v>
@@ -2475,7 +2478,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C81">
         <v>72.59999999999999</v>
@@ -2489,7 +2492,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C82">
         <v>72.59999999999999</v>
@@ -2503,7 +2506,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C83">
         <v>72.5</v>
@@ -2517,7 +2520,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C84">
         <v>72.40000000000001</v>
@@ -2531,7 +2534,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C85">
         <v>72.40000000000001</v>
@@ -2545,7 +2548,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C86">
         <v>72.40000000000001</v>
@@ -2559,7 +2562,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C87">
         <v>72.3</v>
@@ -2573,7 +2576,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C88">
         <v>72.2</v>
@@ -2587,7 +2590,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C89">
         <v>72.2</v>
@@ -2601,7 +2604,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C90">
         <v>72.2</v>
@@ -2615,7 +2618,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C91">
         <v>72</v>
@@ -2629,7 +2632,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C92">
         <v>71.90000000000001</v>
@@ -2643,7 +2646,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C93">
         <v>71.8</v>
@@ -2657,7 +2660,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C94">
         <v>71.8</v>
@@ -2671,7 +2674,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C95">
         <v>71.8</v>
@@ -2685,7 +2688,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C96">
         <v>71.7</v>
@@ -2699,7 +2702,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C97">
         <v>71.7</v>
@@ -2713,7 +2716,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C98">
         <v>71.59999999999999</v>
@@ -2727,7 +2730,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C99">
         <v>71.59999999999999</v>
@@ -2741,7 +2744,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C100">
         <v>71.59999999999999</v>
@@ -2755,7 +2758,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C101">
         <v>71.40000000000001</v>
@@ -2769,7 +2772,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C102">
         <v>71.3</v>
@@ -2783,7 +2786,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C103">
         <v>71.09999999999999</v>
@@ -2797,7 +2800,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C104">
         <v>70.8</v>
@@ -2811,7 +2814,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C105">
         <v>70.8</v>
@@ -2825,7 +2828,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C106">
         <v>70.7</v>
@@ -2839,7 +2842,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C107">
         <v>70.7</v>
@@ -2853,7 +2856,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C108">
         <v>70.40000000000001</v>
@@ -2867,7 +2870,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C109">
         <v>70.40000000000001</v>
@@ -2881,7 +2884,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C110">
         <v>70.2</v>
@@ -2895,7 +2898,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C111">
         <v>70.09999999999999</v>
@@ -2909,7 +2912,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C112">
         <v>70.09999999999999</v>
@@ -2923,7 +2926,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C113">
         <v>70.09999999999999</v>
@@ -2937,7 +2940,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C114">
         <v>70</v>
@@ -2951,7 +2954,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C115">
         <v>70</v>
@@ -2965,7 +2968,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C116">
         <v>70</v>
@@ -2979,7 +2982,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C117">
         <v>69.90000000000001</v>
@@ -2993,7 +2996,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C118">
         <v>69.90000000000001</v>
@@ -3007,7 +3010,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C119">
         <v>69.8</v>
@@ -3021,7 +3024,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C120">
         <v>69.7</v>
@@ -3035,7 +3038,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C121">
         <v>69.59999999999999</v>
@@ -3049,7 +3052,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C122">
         <v>69.59999999999999</v>
@@ -3063,7 +3066,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C123">
         <v>69.5</v>
@@ -3077,7 +3080,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C124">
         <v>69.5</v>
@@ -3091,7 +3094,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C125">
         <v>69.2</v>
@@ -3105,7 +3108,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C126">
         <v>69.2</v>
@@ -3119,7 +3122,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C127">
         <v>69.09999999999999</v>
@@ -3133,7 +3136,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C128">
         <v>69</v>
@@ -3147,7 +3150,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C129">
         <v>69</v>
@@ -3161,7 +3164,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C130">
         <v>69</v>
@@ -3175,7 +3178,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C131">
         <v>68.90000000000001</v>
@@ -3189,7 +3192,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C132">
         <v>68.90000000000001</v>
@@ -3203,7 +3206,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C133">
         <v>68.8</v>
@@ -3217,7 +3220,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C134">
         <v>68.59999999999999</v>
@@ -3231,7 +3234,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C135">
         <v>68.59999999999999</v>
@@ -3245,7 +3248,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C136">
         <v>68.59999999999999</v>
@@ -3259,7 +3262,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C137">
         <v>68.3</v>
@@ -3273,7 +3276,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C138">
         <v>68.3</v>
@@ -3287,7 +3290,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C139">
         <v>68.3</v>
@@ -3301,7 +3304,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C140">
         <v>68.2</v>
@@ -3315,7 +3318,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C141">
         <v>68.2</v>
@@ -3329,7 +3332,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C142">
         <v>68.2</v>
@@ -3343,7 +3346,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C143">
         <v>68</v>
@@ -3357,7 +3360,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C144">
         <v>68</v>
@@ -3371,7 +3374,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C145">
         <v>67.7</v>
@@ -3385,7 +3388,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C146">
         <v>67.7</v>
@@ -3399,7 +3402,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C147">
         <v>67.5</v>
@@ -3413,7 +3416,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C148">
         <v>67.5</v>
@@ -3427,7 +3430,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C149">
         <v>67.5</v>
@@ -3441,7 +3444,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C150">
         <v>67.5</v>
@@ -3455,7 +3458,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C151">
         <v>67.5</v>
@@ -3469,7 +3472,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C152">
         <v>67.40000000000001</v>
@@ -3483,7 +3486,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C153">
         <v>67.40000000000001</v>
@@ -3497,7 +3500,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C154">
         <v>67.3</v>
@@ -3511,7 +3514,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C155">
         <v>67.3</v>
@@ -3525,7 +3528,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C156">
         <v>67.3</v>
@@ -3539,7 +3542,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C157">
         <v>67.3</v>
@@ -3553,7 +3556,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C158">
         <v>67.2</v>
@@ -3567,7 +3570,7 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C159">
         <v>67.2</v>
@@ -3581,7 +3584,7 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C160">
         <v>67</v>
@@ -3595,7 +3598,7 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C161">
         <v>67</v>
@@ -3609,7 +3612,7 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C162">
         <v>66.8</v>
@@ -3623,7 +3626,7 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C163">
         <v>66.8</v>
@@ -3637,7 +3640,7 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C164">
         <v>66.7</v>
@@ -3651,7 +3654,7 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C165">
         <v>66.59999999999999</v>
@@ -3665,7 +3668,7 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C166">
         <v>66.5</v>
@@ -3679,7 +3682,7 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C167">
         <v>66.5</v>
@@ -3693,7 +3696,7 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C168">
         <v>66.3</v>
@@ -3707,7 +3710,7 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C169">
         <v>66.2</v>
@@ -3721,7 +3724,7 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C170">
         <v>66.2</v>
@@ -3735,7 +3738,7 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C171">
         <v>66.09999999999999</v>
@@ -3749,7 +3752,7 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C172">
         <v>66.09999999999999</v>
@@ -3763,7 +3766,7 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C173">
         <v>66.09999999999999</v>
@@ -3777,7 +3780,7 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C174">
         <v>66.09999999999999</v>
@@ -3791,7 +3794,7 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C175">
         <v>66</v>
@@ -3805,7 +3808,7 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C176">
         <v>66</v>
@@ -3819,7 +3822,7 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C177">
         <v>66</v>
@@ -3833,7 +3836,7 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C178">
         <v>65.90000000000001</v>
@@ -3847,7 +3850,7 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C179">
         <v>65.8</v>
@@ -3861,7 +3864,7 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C180">
         <v>65.8</v>
@@ -3875,7 +3878,7 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C181">
         <v>65.7</v>
@@ -3889,7 +3892,7 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C182">
         <v>65.7</v>
@@ -3903,7 +3906,7 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C183">
         <v>65.7</v>
@@ -3917,7 +3920,7 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C184">
         <v>65.7</v>
@@ -3931,7 +3934,7 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C185">
         <v>65.5</v>
@@ -3945,7 +3948,7 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C186">
         <v>65.5</v>
@@ -3959,7 +3962,7 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C187">
         <v>65.5</v>
@@ -3973,7 +3976,7 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C188">
         <v>65.40000000000001</v>
@@ -3987,7 +3990,7 @@
         <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C189">
         <v>65.40000000000001</v>
@@ -4001,7 +4004,7 @@
         <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C190">
         <v>65.3</v>
@@ -4015,7 +4018,7 @@
         <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C191">
         <v>65.3</v>
@@ -4029,7 +4032,7 @@
         <v>192</v>
       </c>
       <c r="B192" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C192">
         <v>65.3</v>
@@ -4043,7 +4046,7 @@
         <v>193</v>
       </c>
       <c r="B193" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C193">
         <v>65.2</v>
@@ -4057,7 +4060,7 @@
         <v>194</v>
       </c>
       <c r="B194" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C194">
         <v>65.09999999999999</v>
@@ -4071,7 +4074,7 @@
         <v>195</v>
       </c>
       <c r="B195" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C195">
         <v>64.90000000000001</v>
@@ -4085,7 +4088,7 @@
         <v>196</v>
       </c>
       <c r="B196" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C196">
         <v>64.90000000000001</v>
@@ -4099,7 +4102,7 @@
         <v>197</v>
       </c>
       <c r="B197" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C197">
         <v>64.8</v>
@@ -4113,7 +4116,7 @@
         <v>198</v>
       </c>
       <c r="B198" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C198">
         <v>64.7</v>
@@ -4127,7 +4130,7 @@
         <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C199">
         <v>64.5</v>
@@ -4141,7 +4144,7 @@
         <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C200">
         <v>64.5</v>
@@ -4155,7 +4158,7 @@
         <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C201">
         <v>64.40000000000001</v>
@@ -4169,7 +4172,7 @@
         <v>202</v>
       </c>
       <c r="B202" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C202">
         <v>64.2</v>
@@ -4183,7 +4186,7 @@
         <v>203</v>
       </c>
       <c r="B203" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C203">
         <v>64.2</v>
@@ -4197,7 +4200,7 @@
         <v>204</v>
       </c>
       <c r="B204" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C204">
         <v>64</v>
@@ -4211,7 +4214,7 @@
         <v>205</v>
       </c>
       <c r="B205" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C205">
         <v>63.9</v>
@@ -4225,7 +4228,7 @@
         <v>206</v>
       </c>
       <c r="B206" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C206">
         <v>63.9</v>
@@ -4239,7 +4242,7 @@
         <v>207</v>
       </c>
       <c r="B207" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C207">
         <v>63.8</v>
@@ -4253,7 +4256,7 @@
         <v>208</v>
       </c>
       <c r="B208" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C208">
         <v>63.8</v>
@@ -4267,7 +4270,7 @@
         <v>209</v>
       </c>
       <c r="B209" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C209">
         <v>63.7</v>
@@ -4281,7 +4284,7 @@
         <v>210</v>
       </c>
       <c r="B210" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C210">
         <v>63.7</v>
@@ -4295,7 +4298,7 @@
         <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C211">
         <v>63.5</v>
@@ -4309,7 +4312,7 @@
         <v>212</v>
       </c>
       <c r="B212" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C212">
         <v>63.5</v>
@@ -4323,7 +4326,7 @@
         <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C213">
         <v>63.4</v>
@@ -4337,7 +4340,7 @@
         <v>214</v>
       </c>
       <c r="B214" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C214">
         <v>63.3</v>
@@ -4351,7 +4354,7 @@
         <v>215</v>
       </c>
       <c r="B215" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C215">
         <v>63</v>
@@ -4365,7 +4368,7 @@
         <v>216</v>
       </c>
       <c r="B216" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C216">
         <v>62.9</v>
@@ -4379,7 +4382,7 @@
         <v>217</v>
       </c>
       <c r="B217" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C217">
         <v>62.8</v>
@@ -4393,7 +4396,7 @@
         <v>218</v>
       </c>
       <c r="B218" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C218">
         <v>62.8</v>
@@ -4407,7 +4410,7 @@
         <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C219">
         <v>62.8</v>
@@ -4421,7 +4424,7 @@
         <v>220</v>
       </c>
       <c r="B220" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C220">
         <v>62.7</v>
@@ -4435,7 +4438,7 @@
         <v>221</v>
       </c>
       <c r="B221" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C221">
         <v>62.7</v>
@@ -4449,7 +4452,7 @@
         <v>222</v>
       </c>
       <c r="B222" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C222">
         <v>62.6</v>
@@ -4463,7 +4466,7 @@
         <v>224</v>
       </c>
       <c r="B223" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C223">
         <v>62.5</v>
@@ -4477,7 +4480,7 @@
         <v>225</v>
       </c>
       <c r="B224" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C224">
         <v>62.5</v>
@@ -4491,7 +4494,7 @@
         <v>226</v>
       </c>
       <c r="B225" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C225">
         <v>62.4</v>
@@ -4505,7 +4508,7 @@
         <v>227</v>
       </c>
       <c r="B226" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C226">
         <v>62.1</v>
@@ -4519,7 +4522,7 @@
         <v>228</v>
       </c>
       <c r="B227" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C227">
         <v>62.1</v>
@@ -4533,7 +4536,7 @@
         <v>229</v>
       </c>
       <c r="B228" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C228">
         <v>62</v>
@@ -4547,7 +4550,7 @@
         <v>230</v>
       </c>
       <c r="B229" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C229">
         <v>62</v>
@@ -4561,7 +4564,7 @@
         <v>231</v>
       </c>
       <c r="B230" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C230">
         <v>62</v>
@@ -4575,7 +4578,7 @@
         <v>232</v>
       </c>
       <c r="B231" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C231">
         <v>61.5</v>
@@ -4589,7 +4592,7 @@
         <v>233</v>
       </c>
       <c r="B232" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C232">
         <v>61.4</v>
@@ -4603,7 +4606,7 @@
         <v>234</v>
       </c>
       <c r="B233" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C233">
         <v>61.3</v>
@@ -4617,7 +4620,7 @@
         <v>235</v>
       </c>
       <c r="B234" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C234">
         <v>61.3</v>
@@ -4631,7 +4634,7 @@
         <v>236</v>
       </c>
       <c r="B235" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C235">
         <v>61.1</v>
@@ -4645,7 +4648,7 @@
         <v>237</v>
       </c>
       <c r="B236" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C236">
         <v>60.9</v>
@@ -4659,7 +4662,7 @@
         <v>238</v>
       </c>
       <c r="B237" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C237">
         <v>60.7</v>
@@ -4673,7 +4676,7 @@
         <v>239</v>
       </c>
       <c r="B238" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C238">
         <v>60.7</v>
@@ -4687,7 +4690,7 @@
         <v>240</v>
       </c>
       <c r="B239" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C239">
         <v>60.7</v>
@@ -4701,7 +4704,7 @@
         <v>241</v>
       </c>
       <c r="B240" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C240">
         <v>60.3</v>
@@ -4715,7 +4718,7 @@
         <v>242</v>
       </c>
       <c r="B241" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C241">
         <v>60.3</v>
@@ -4729,7 +4732,7 @@
         <v>243</v>
       </c>
       <c r="B242" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C242">
         <v>60.2</v>
@@ -4743,7 +4746,7 @@
         <v>244</v>
       </c>
       <c r="B243" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C243">
         <v>60.1</v>
@@ -4757,7 +4760,7 @@
         <v>245</v>
       </c>
       <c r="B244" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C244">
         <v>60</v>
@@ -4771,7 +4774,7 @@
         <v>246</v>
       </c>
       <c r="B245" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C245">
         <v>59.5</v>
@@ -4785,7 +4788,7 @@
         <v>247</v>
       </c>
       <c r="B246" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C246">
         <v>59.1</v>
@@ -4799,7 +4802,7 @@
         <v>248</v>
       </c>
       <c r="B247" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C247">
         <v>59</v>
@@ -4813,7 +4816,7 @@
         <v>249</v>
       </c>
       <c r="B248" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C248">
         <v>58.9</v>
@@ -4827,7 +4830,7 @@
         <v>250</v>
       </c>
       <c r="B249" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C249">
         <v>58.8</v>
@@ -4841,7 +4844,7 @@
         <v>251</v>
       </c>
       <c r="B250" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C250">
         <v>58.7</v>
@@ -4855,7 +4858,7 @@
         <v>252</v>
       </c>
       <c r="B251" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C251">
         <v>58.4</v>
@@ -4869,7 +4872,7 @@
         <v>253</v>
       </c>
       <c r="B252" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C252">
         <v>58.4</v>
@@ -4883,7 +4886,7 @@
         <v>254</v>
       </c>
       <c r="B253" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C253">
         <v>58.3</v>
@@ -4897,7 +4900,7 @@
         <v>255</v>
       </c>
       <c r="B254" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C254">
         <v>58.3</v>
@@ -4911,7 +4914,7 @@
         <v>256</v>
       </c>
       <c r="B255" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C255">
         <v>58.3</v>
@@ -4925,7 +4928,7 @@
         <v>257</v>
       </c>
       <c r="B256" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C256">
         <v>58.2</v>
@@ -4939,7 +4942,7 @@
         <v>258</v>
       </c>
       <c r="B257" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C257">
         <v>58.2</v>
@@ -4953,7 +4956,7 @@
         <v>259</v>
       </c>
       <c r="B258" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C258">
         <v>57.6</v>
@@ -4967,7 +4970,7 @@
         <v>260</v>
       </c>
       <c r="B259" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C259">
         <v>57.4</v>
@@ -4981,7 +4984,7 @@
         <v>261</v>
       </c>
       <c r="B260" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C260">
         <v>57.4</v>
@@ -4995,7 +4998,7 @@
         <v>262</v>
       </c>
       <c r="B261" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C261">
         <v>57.2</v>
@@ -5009,7 +5012,7 @@
         <v>263</v>
       </c>
       <c r="B262" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C262">
         <v>57.2</v>
@@ -5023,7 +5026,7 @@
         <v>264</v>
       </c>
       <c r="B263" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C263">
         <v>57.2</v>
@@ -5037,7 +5040,7 @@
         <v>265</v>
       </c>
       <c r="B264" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C264">
         <v>57.1</v>
@@ -5051,7 +5054,7 @@
         <v>266</v>
       </c>
       <c r="B265" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C265">
         <v>57</v>
@@ -5065,7 +5068,7 @@
         <v>267</v>
       </c>
       <c r="B266" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C266">
         <v>56.5</v>
@@ -5079,7 +5082,7 @@
         <v>268</v>
       </c>
       <c r="B267" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C267">
         <v>56.5</v>
@@ -5093,7 +5096,7 @@
         <v>269</v>
       </c>
       <c r="B268" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C268">
         <v>56.3</v>
@@ -5107,7 +5110,7 @@
         <v>270</v>
       </c>
       <c r="B269" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C269">
         <v>56.2</v>
@@ -5121,7 +5124,7 @@
         <v>271</v>
       </c>
       <c r="B270" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C270">
         <v>55.8</v>
@@ -5135,7 +5138,7 @@
         <v>272</v>
       </c>
       <c r="B271" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C271">
         <v>55.6</v>
@@ -5149,7 +5152,7 @@
         <v>273</v>
       </c>
       <c r="B272" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C272">
         <v>55.3</v>
@@ -5163,7 +5166,7 @@
         <v>274</v>
       </c>
       <c r="B273" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C273">
         <v>55.3</v>
@@ -5177,7 +5180,7 @@
         <v>275</v>
       </c>
       <c r="B274" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C274">
         <v>54.9</v>
@@ -5191,7 +5194,7 @@
         <v>276</v>
       </c>
       <c r="B275" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C275">
         <v>54.9</v>
@@ -5205,7 +5208,7 @@
         <v>277</v>
       </c>
       <c r="B276" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C276">
         <v>54.5</v>
@@ -5219,7 +5222,7 @@
         <v>278</v>
       </c>
       <c r="B277" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C277">
         <v>54.4</v>
@@ -5233,7 +5236,7 @@
         <v>279</v>
       </c>
       <c r="B278" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C278">
         <v>53.9</v>
@@ -5247,7 +5250,7 @@
         <v>280</v>
       </c>
       <c r="B279" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C279">
         <v>53.7</v>
@@ -5261,7 +5264,7 @@
         <v>281</v>
       </c>
       <c r="B280" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C280">
         <v>53.4</v>
@@ -5275,7 +5278,7 @@
         <v>282</v>
       </c>
       <c r="B281" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C281">
         <v>53.3</v>
@@ -5289,7 +5292,7 @@
         <v>283</v>
       </c>
       <c r="B282" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C282">
         <v>52.7</v>
@@ -5303,7 +5306,7 @@
         <v>284</v>
       </c>
       <c r="B283" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C283">
         <v>52.3</v>
@@ -5317,7 +5320,7 @@
         <v>285</v>
       </c>
       <c r="B284" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C284">
         <v>52.1</v>
@@ -5331,7 +5334,7 @@
         <v>286</v>
       </c>
       <c r="B285" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C285">
         <v>51.8</v>
@@ -5345,7 +5348,7 @@
         <v>287</v>
       </c>
       <c r="B286" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C286">
         <v>51.6</v>
@@ -5359,7 +5362,7 @@
         <v>288</v>
       </c>
       <c r="B287" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C287">
         <v>51.5</v>
@@ -5373,7 +5376,7 @@
         <v>289</v>
       </c>
       <c r="B288" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C288">
         <v>51.4</v>
@@ -5387,7 +5390,7 @@
         <v>290</v>
       </c>
       <c r="B289" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C289">
         <v>51</v>
@@ -5401,7 +5404,7 @@
         <v>291</v>
       </c>
       <c r="B290" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C290">
         <v>50.9</v>
@@ -5415,7 +5418,7 @@
         <v>292</v>
       </c>
       <c r="B291" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C291">
         <v>50.8</v>
@@ -5429,7 +5432,7 @@
         <v>293</v>
       </c>
       <c r="B292" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C292">
         <v>50</v>
@@ -5443,7 +5446,7 @@
         <v>294</v>
       </c>
       <c r="B293" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C293">
         <v>50</v>
@@ -5457,7 +5460,7 @@
         <v>295</v>
       </c>
       <c r="B294" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C294">
         <v>49.7</v>
@@ -5471,7 +5474,7 @@
         <v>296</v>
       </c>
       <c r="B295" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C295">
         <v>49.3</v>
@@ -5485,7 +5488,7 @@
         <v>297</v>
       </c>
       <c r="B296" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C296">
         <v>49.2</v>
@@ -5499,7 +5502,7 @@
         <v>298</v>
       </c>
       <c r="B297" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C297">
         <v>48.8</v>
@@ -5513,7 +5516,7 @@
         <v>299</v>
       </c>
       <c r="B298" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C298">
         <v>48.3</v>
@@ -5527,7 +5530,7 @@
         <v>300</v>
       </c>
       <c r="B299" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C299">
         <v>48.2</v>
@@ -5541,7 +5544,7 @@
         <v>301</v>
       </c>
       <c r="B300" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C300">
         <v>48.1</v>
@@ -5555,7 +5558,7 @@
         <v>302</v>
       </c>
       <c r="B301" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C301">
         <v>47.5</v>
@@ -5569,7 +5572,7 @@
         <v>303</v>
       </c>
       <c r="B302" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C302">
         <v>47.1</v>
@@ -5583,7 +5586,7 @@
         <v>304</v>
       </c>
       <c r="B303" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C303">
         <v>46.8</v>
@@ -5597,7 +5600,7 @@
         <v>305</v>
       </c>
       <c r="B304" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C304">
         <v>46.2</v>
@@ -5611,7 +5614,7 @@
         <v>306</v>
       </c>
       <c r="B305" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C305">
         <v>45.7</v>
@@ -5625,7 +5628,7 @@
         <v>307</v>
       </c>
       <c r="B306" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C306">
         <v>45.3</v>
@@ -5639,7 +5642,7 @@
         <v>308</v>
       </c>
       <c r="B307" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C307">
         <v>44.9</v>
@@ -5653,7 +5656,7 @@
         <v>309</v>
       </c>
       <c r="B308" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C308">
         <v>39.9</v>
@@ -5667,7 +5670,7 @@
         <v>310</v>
       </c>
       <c r="B309" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C309">
         <v>38.1</v>
@@ -5681,7 +5684,7 @@
         <v>311</v>
       </c>
       <c r="B310" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C310">
         <v>37.1</v>
@@ -5695,7 +5698,7 @@
         <v>312</v>
       </c>
       <c r="B311" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C311">
         <v>36.6</v>
@@ -5706,7 +5709,7 @@
     </row>
     <row r="312" spans="1:4">
       <c r="B312" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C312">
         <v>82.86</v>
@@ -5714,7 +5717,7 @@
     </row>
     <row r="313" spans="1:4">
       <c r="B313" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C313">
         <v>67.16</v>
@@ -5722,7 +5725,7 @@
     </row>
     <row r="314" spans="1:4">
       <c r="B314" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C314">
         <v>42.46</v>
@@ -5730,7 +5733,7 @@
     </row>
     <row r="315" spans="1:4">
       <c r="B315" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C315">
         <v>62.54</v>
@@ -5738,7 +5741,7 @@
     </row>
     <row r="316" spans="1:4">
       <c r="B316" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C316">
         <v>62.21</v>
@@ -5746,7 +5749,7 @@
     </row>
     <row r="317" spans="1:4">
       <c r="B317" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C317">
         <v>57.58</v>
@@ -5754,7 +5757,7 @@
     </row>
     <row r="318" spans="1:4">
       <c r="B318" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C318">
         <v>56.02</v>
@@ -5762,7 +5765,7 @@
     </row>
     <row r="319" spans="1:4">
       <c r="B319" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C319">
         <v>76.23</v>
@@ -5770,65 +5773,241 @@
     </row>
     <row r="320" spans="1:4">
       <c r="B320" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C320">
         <v>56.02</v>
       </c>
     </row>
-    <row r="321" spans="2:3">
+    <row r="321" spans="1:3">
       <c r="B321" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C321">
         <v>66.67</v>
       </c>
     </row>
-    <row r="322" spans="2:3">
+    <row r="322" spans="1:3">
       <c r="B322" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C322">
         <v>73.98999999999999</v>
       </c>
     </row>
-    <row r="323" spans="2:3">
+    <row r="323" spans="1:3">
       <c r="B323" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C323">
         <v>37.96</v>
       </c>
     </row>
-    <row r="324" spans="2:3">
+    <row r="324" spans="1:3">
       <c r="B324" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C324">
         <v>48.23</v>
       </c>
     </row>
-    <row r="325" spans="2:3">
+    <row r="325" spans="1:3">
       <c r="B325" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C325">
         <v>71.40000000000001</v>
       </c>
     </row>
-    <row r="326" spans="2:3">
+    <row r="326" spans="1:3">
       <c r="B326" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C326">
         <v>64.53</v>
       </c>
     </row>
-    <row r="327" spans="2:3">
+    <row r="327" spans="1:3">
       <c r="B327" t="s">
+        <v>329</v>
+      </c>
+      <c r="C327">
+        <v>61.4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" t="s">
+        <v>4</v>
+      </c>
+      <c r="B328" t="s">
+        <v>314</v>
+      </c>
+      <c r="C328">
+        <v>82.86</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" t="s">
+        <v>4</v>
+      </c>
+      <c r="B329" t="s">
+        <v>315</v>
+      </c>
+      <c r="C329">
+        <v>67.16</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" t="s">
+        <v>4</v>
+      </c>
+      <c r="B330" t="s">
+        <v>316</v>
+      </c>
+      <c r="C330">
+        <v>42.46</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" t="s">
+        <v>4</v>
+      </c>
+      <c r="B331" t="s">
+        <v>317</v>
+      </c>
+      <c r="C331">
+        <v>62.54</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" t="s">
+        <v>4</v>
+      </c>
+      <c r="B332" t="s">
+        <v>318</v>
+      </c>
+      <c r="C332">
+        <v>62.21</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" t="s">
+        <v>4</v>
+      </c>
+      <c r="B333" t="s">
+        <v>319</v>
+      </c>
+      <c r="C333">
+        <v>57.58</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" t="s">
+        <v>4</v>
+      </c>
+      <c r="B334" t="s">
+        <v>320</v>
+      </c>
+      <c r="C334">
+        <v>56.02</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" t="s">
+        <v>4</v>
+      </c>
+      <c r="B335" t="s">
+        <v>321</v>
+      </c>
+      <c r="C335">
+        <v>76.23</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" t="s">
+        <v>4</v>
+      </c>
+      <c r="B336" t="s">
+        <v>322</v>
+      </c>
+      <c r="C336">
+        <v>56.02</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" t="s">
+        <v>4</v>
+      </c>
+      <c r="B337" t="s">
+        <v>323</v>
+      </c>
+      <c r="C337">
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" t="s">
+        <v>4</v>
+      </c>
+      <c r="B338" t="s">
+        <v>324</v>
+      </c>
+      <c r="C338">
+        <v>73.98999999999999</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" t="s">
+        <v>4</v>
+      </c>
+      <c r="B339" t="s">
+        <v>325</v>
+      </c>
+      <c r="C339">
+        <v>37.96</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" t="s">
+        <v>4</v>
+      </c>
+      <c r="B340" t="s">
+        <v>326</v>
+      </c>
+      <c r="C340">
+        <v>48.23</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" t="s">
+        <v>4</v>
+      </c>
+      <c r="B341" t="s">
+        <v>327</v>
+      </c>
+      <c r="C341">
+        <v>71.40000000000001</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" t="s">
+        <v>4</v>
+      </c>
+      <c r="B342" t="s">
         <v>328</v>
       </c>
-      <c r="C327">
+      <c r="C342">
+        <v>64.53</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" t="s">
+        <v>4</v>
+      </c>
+      <c r="B343" t="s">
+        <v>329</v>
+      </c>
+      <c r="C343">
         <v>61.4</v>
       </c>
     </row>
